--- a/dataType/referral_participant.xlsx
+++ b/dataType/referral_participant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\dataType\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06425B75-706F-41FC-BE34-222E06512DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA13245B-2D76-42F8-88AA-6DEABD629E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
 uncertain
 unknown
 </t>
-  </si>
-  <si>
-    <t>patient_id</t>
   </si>
   <si>
     <t>id</t>
@@ -122,6 +119,9 @@
 MaternalFirstCousinOnceRemoved
 PaternalThirdCousin
 PaternalCousinSister</t>
+  </si>
+  <si>
+    <t>participant_id</t>
   </si>
 </sst>
 </file>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -516,13 +516,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -530,13 +530,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="329" customHeight="1" x14ac:dyDescent="0.35">
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
